--- a/src/main/resources/excels/BuyLinkTCs.xlsx
+++ b/src/main/resources/excels/BuyLinkTCs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="54">
   <si>
     <t>TestCase ID</t>
   </si>

--- a/src/main/resources/excels/BuyLinkTCs.xlsx
+++ b/src/main/resources/excels/BuyLinkTCs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
   <si>
     <t>TestCase ID</t>
   </si>

--- a/src/main/resources/excels/BuyLinkTCs.xlsx
+++ b/src/main/resources/excels/BuyLinkTCs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BCA966-312C-4DB2-B049-EAE8790C5FA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67564B56-D131-4DD9-A659-5A223D56147B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -208,17 +208,112 @@
     <t>Result</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>Check navigate to buy link of store that enable guest checkout</t>
+  </si>
+  <si>
+    <t>1. Login to Dashboard
+2. Go to Marketing &gt;&gt; Buy Link &gt;&gt;Create a buylink.
+3. Navigate to buy link &gt;&gt; Checkout as guest
+4. Verify product name and discount on Step 1 2 3 and Order Complete page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can checkout with guest (no need login).
+Product name should be shown as selected on Buy Link 
+</t>
+  </si>
+  <si>
+    <t>"Buy link is invalid" and "Invalid coupon code" should be shown</t>
+  </si>
+  <si>
+    <t>1. Login to Dashboard
+2. Create buy link with discount code that limit 2 times usages
+3. Checkout with buy link the first time succssessfully
+3. Check out with buy link the second time &gt;&gt; Verify error</t>
+  </si>
+  <si>
+    <t>"Buy link is invalid" and "Maximum number of allowed usage reached" should be shown</t>
+  </si>
+  <si>
+    <t>1. Login to Dashboard
+2. Create buy link with discount code that limit 1 time per user
+3. Checkout with buy link the first time succssessfully
+3. Check out with buy link the second time &gt;&gt; Verify error</t>
+  </si>
+  <si>
+    <t>"Buy link is invalid" and "Only once use per customer" should be shown</t>
+  </si>
+  <si>
+    <t>1. Login to dashboard
+2. Create buy link with product A has no variation&gt;&gt; Delete product A
+3. Navigate to buy link &gt;&gt; Verify error</t>
+  </si>
+  <si>
+    <t>"Buy link is invalid" should be shown.
+Product not shown</t>
+  </si>
+  <si>
+    <t>1. Login to dashboard
+2. Create buy link with product A has variation&gt;&gt; Delete all variation of product A
+3. Navigate to buy link &gt;&gt; Verify error</t>
+  </si>
+  <si>
+    <t>1. Login to dashboard
+2. Create invalid buy link
+3. Navigate to buy link with language = VIE &gt;&gt; Check text
+4. Navigate to buy link with language = ENG &gt;&gt; Check text</t>
+  </si>
+  <si>
+    <t>The text should be displayed by language</t>
+  </si>
+  <si>
+    <t>Check product name by language incase use valid link</t>
+  </si>
+  <si>
+    <t>1. Login to dashboard
+2. Create valid buy link
+3. Checkout with buy link and verify product name by VIE, ENG in step 2,3 and completed order page</t>
+  </si>
+  <si>
+    <t>Product name should be displayed by language</t>
+  </si>
+  <si>
+    <t>1. Login to dashboard
+2. Go to Buy link management page, click on Copy link
+3. Verify</t>
+  </si>
+  <si>
+    <t>Copy link should be successfully</t>
+  </si>
+  <si>
+    <t>BL18</t>
+  </si>
+  <si>
+    <t>1. Login to Dashboard
+2. Go to buy link, click on edit newest buy link with new product and discount
+3. Checkout with buy link on SF &gt;&gt; Verify</t>
+  </si>
+  <si>
+    <t>Buy link should be updated successfully
+Checkout should be successfully</t>
+  </si>
+  <si>
+    <t>BL19</t>
+  </si>
+  <si>
+    <t>1. Login to Dashboard
+2. Go to buy link, click on delete newest buy link
+3. Verify the buy link in management page
+4. Navigate to buy link &gt;&gt; Verify display</t>
+  </si>
+  <si>
+    <t>The buy link should not be shown in management page.
+Home page should be shown after navigated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,18 +671,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="65.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="65.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="42" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -620,9 +715,6 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -637,9 +729,6 @@
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="4" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -654,9 +743,6 @@
       <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="5" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -671,9 +757,6 @@
       <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="6" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -688,9 +771,6 @@
       <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="7" spans="1:5" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -705,9 +785,6 @@
       <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="8" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -722,9 +799,6 @@
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="9" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -739,101 +813,160 @@
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="10" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excels/BuyLinkTCs.xlsx
+++ b/src/main/resources/excels/BuyLinkTCs.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -308,12 +308,16 @@
   <si>
     <t>The buy link should not be shown in management page.
 Home page should be shown after navigated</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -679,10 +683,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="65.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="65.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -715,6 +719,9 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -827,6 +834,9 @@
       <c r="D10" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -841,6 +851,9 @@
       <c r="D11" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -855,6 +868,9 @@
       <c r="D12" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -869,6 +885,9 @@
       <c r="D13" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -883,6 +902,9 @@
       <c r="D14" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -897,6 +919,9 @@
       <c r="D15" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -911,6 +936,9 @@
       <c r="D16" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -925,6 +953,9 @@
       <c r="D17" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
@@ -939,6 +970,9 @@
       <c r="D18" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
@@ -953,6 +987,9 @@
       <c r="D19" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
@@ -966,6 +1003,9 @@
       </c>
       <c r="D20" s="4" t="s">
         <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excels/BuyLinkTCs.xlsx
+++ b/src/main/resources/excels/BuyLinkTCs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -736,6 +739,9 @@
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -750,6 +756,9 @@
       <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -764,6 +773,9 @@
       <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -778,6 +790,9 @@
       <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -792,6 +807,9 @@
       <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -806,6 +824,9 @@
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -819,6 +840,9 @@
       </c>
       <c r="D9" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">

--- a/src/main/resources/excels/BuyLinkTCs.xlsx
+++ b/src/main/resources/excels/BuyLinkTCs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67564B56-D131-4DD9-A659-5A223D56147B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7CA7A6-472A-4A1F-A779-B47DD4E2D259}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>Check delete link</t>
-  </si>
-  <si>
-    <t>Result</t>
   </si>
   <si>
     <t>Check navigate to buy link of store that enable guest checkout</t>
@@ -313,14 +310,16 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>Result ENG</t>
+  </si>
+  <si>
+    <t>Result VIE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -678,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -686,13 +685,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="65.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="65.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="42" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,10 +706,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -723,10 +726,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -740,10 +743,10 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -757,10 +760,10 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -774,10 +777,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -791,10 +794,10 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -808,10 +811,10 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -825,10 +828,10 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -842,27 +845,27 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="E10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -873,13 +876,13 @@
         <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -887,16 +890,16 @@
         <v>36</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -904,16 +907,16 @@
         <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="E13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -921,16 +924,16 @@
         <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="E14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -938,16 +941,16 @@
         <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -955,33 +958,33 @@
         <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="E16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="E17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>49</v>
       </c>
@@ -989,47 +992,47 @@
         <v>46</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excels/BuyLinkTCs.xlsx
+++ b/src/main/resources/excels/BuyLinkTCs.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="79">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -314,12 +314,16 @@
   </si>
   <si>
     <t>Result VIE</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -685,11 +689,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="65.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="65.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -725,7 +729,10 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -742,7 +749,10 @@
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -759,7 +769,10 @@
       <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -776,7 +789,10 @@
       <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -793,7 +809,10 @@
       <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -810,7 +829,10 @@
       <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -827,7 +849,10 @@
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -844,7 +869,10 @@
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -861,7 +889,10 @@
       <c r="D10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -878,7 +909,10 @@
       <c r="D11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -895,7 +929,10 @@
       <c r="D12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -912,7 +949,10 @@
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -929,7 +969,10 @@
       <c r="D14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -946,8 +989,11 @@
       <c r="D15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
-        <v>75</v>
+      <c r="E15" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -963,7 +1009,10 @@
       <c r="D16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -980,7 +1029,10 @@
       <c r="D17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -997,7 +1049,10 @@
       <c r="D18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -1014,7 +1069,10 @@
       <c r="D19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -1031,7 +1089,10 @@
       <c r="D20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s" s="0">
         <v>75</v>
       </c>
     </row>

--- a/src/main/resources/excels/BuyLinkTCs.xlsx
+++ b/src/main/resources/excels/BuyLinkTCs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="79">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -793,7 +793,7 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -993,7 +993,7 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1070,7 +1070,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="0">
         <v>75</v>

--- a/src/main/resources/excels/BuyLinkTCs.xlsx
+++ b/src/main/resources/excels/BuyLinkTCs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="79">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -770,7 +770,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>75</v>

--- a/src/main/resources/excels/BuyLinkTCs.xlsx
+++ b/src/main/resources/excels/BuyLinkTCs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="79">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -770,7 +770,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>75</v>
@@ -1070,7 +1070,7 @@
         <v>71</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s" s="0">
         <v>75</v>
